--- a/xlsx-templates/fn_contract_zero.xlsx
+++ b/xlsx-templates/fn_contract_zero.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4060" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="4060" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -163,31 +163,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,117 +476,117 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/fn_contract_zero.xlsx
+++ b/xlsx-templates/fn_contract_zero.xlsx
@@ -175,19 +175,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -482,19 +482,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -534,45 +534,45 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">

--- a/xlsx-templates/fn_contract_zero.xlsx
+++ b/xlsx-templates/fn_contract_zero.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4060" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>职能类合同会签单</t>
   </si>
@@ -63,6 +63,13 @@
   </si>
   <si>
     <t>其他说明事项</t>
+  </si>
+  <si>
+    <t>同意</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -470,7 +477,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +550,9 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="1"/>
@@ -552,7 +561,9 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>
@@ -561,7 +572,9 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="1"/>

--- a/xlsx-templates/fn_contract_zero.xlsx
+++ b/xlsx-templates/fn_contract_zero.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>职能类合同会签单</t>
   </si>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,9 +561,7 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="1"/>

--- a/xlsx-templates/fn_contract_zero.xlsx
+++ b/xlsx-templates/fn_contract_zero.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$D$10</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -474,10 +477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,6 +606,8 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/xlsx-templates/fn_contract_zero.xlsx
+++ b/xlsx-templates/fn_contract_zero.xlsx
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
-    <t>职能类合同会签单</t>
-  </si>
-  <si>
     <t>我司名称</t>
   </si>
   <si>
@@ -72,6 +69,10 @@
     <rPh sb="0" eb="1">
       <t>tong'yi</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>职能类合同会签单</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +484,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,7 +497,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -512,40 +513,40 @@
     </row>
     <row r="3" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -554,10 +555,10 @@
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -565,7 +566,7 @@
     </row>
     <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -574,10 +575,10 @@
     </row>
     <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -585,7 +586,7 @@
     </row>
     <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
